--- a/Sentinel Alert Queries.xlsx
+++ b/Sentinel Alert Queries.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>SENTINEL ALERT QUERIES</t>
+  </si>
   <si>
     <t>CUSTOM: Brute Force SUCCESS - Windows</t>
   </si>
@@ -183,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -194,6 +197,18 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19.0"/>
+      <color rgb="FF4285F4"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,12 +225,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
@@ -446,146 +467,149 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1"/>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1"/>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="1"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="1"/>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="1"/>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="1"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="1"/>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="1"/>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="1"/>
     </row>
     <row r="23">
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="1"/>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="1"/>
     </row>
     <row r="27">
-      <c r="B27" s="2" t="s">
-        <v>24</v>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
+      <c r="C27" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
